--- a/DataSets/PriceBlotterFX.xlsx
+++ b/DataSets/PriceBlotterFX.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/adaptableblotter-demo/DataSets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="41240" windowHeight="24360"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="FXPrice" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -243,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +250,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,14 +288,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -343,7 +358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,7 +393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,24 +581,24 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="12" width="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -600,31 +615,31 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -642,33 +657,33 @@
         <v>0.99070000000000003</v>
       </c>
       <c r="F2">
+        <f>SUM(C2-H2/2)</f>
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="G2">
+        <f>SUM(C2+H2/2)</f>
+        <v>1.1135000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
         <v>0.98560000000000003</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>0.98870000000000002</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>0.91510000000000002</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>1.0169999999999999</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J33" si="1">SUM(C2-L2/2)</f>
-        <v>0.86350000000000005</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K33" si="2">SUM(C2+L2/2)</f>
-        <v>1.1135000000000002</v>
-      </c>
-      <c r="L2">
-        <v>0.25</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -686,33 +701,33 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="F3">
+        <f>SUM(C3-H3/2)</f>
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="G3">
+        <f>SUM(C3+H3/2)</f>
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="I3">
         <v>0.75629999999999997</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>0.75939999999999996</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>0.65439999999999998</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>0.76739999999999997</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="1"/>
-        <v>0.63419999999999999</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="2"/>
-        <v>0.88419999999999999</v>
-      </c>
-      <c r="L3">
-        <v>0.25</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -730,33 +745,33 @@
         <v>1.1256999999999999</v>
       </c>
       <c r="F4">
+        <f>SUM(C4-H4/2)</f>
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="G4">
+        <f>SUM(C4+H4/2)</f>
+        <v>1.2462</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
         <v>1.1164000000000001</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>1.1217999999999999</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>1.0054000000000001</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>1.1567000000000001</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>0.99619999999999997</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
-        <v>1.2462</v>
-      </c>
-      <c r="L4">
-        <v>0.25</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -774,33 +789,33 @@
         <v>0.8801000000000001</v>
       </c>
       <c r="F5">
+        <f>SUM(C5-H5/2)</f>
+        <v>0.38160000000000005</v>
+      </c>
+      <c r="G5">
+        <f>SUM(C5+H5/2)</f>
+        <v>1.3816000000000002</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>0.87990000000000002</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>0.88349999999999995</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>0.81879999999999997</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>0.95740000000000003</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>0.38160000000000005</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
-        <v>1.3816000000000002</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -818,33 +833,33 @@
         <v>0.67600000000000005</v>
       </c>
       <c r="F6">
+        <f>SUM(C6-H6/2)</f>
+        <v>0.55210000000000004</v>
+      </c>
+      <c r="G6">
+        <f>SUM(C6+H6/2)</f>
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
         <v>0.6754</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>0.67830000000000001</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>0.57240000000000002</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>0.74529999999999996</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0.55210000000000004</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>0.80210000000000004</v>
-      </c>
-      <c r="L6">
-        <v>0.25</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -862,33 +877,33 @@
         <v>0.69740000000000002</v>
       </c>
       <c r="F7">
+        <f>SUM(C7-H7/2)</f>
+        <v>0.5726</v>
+      </c>
+      <c r="G7">
+        <f>SUM(C7+H7/2)</f>
+        <v>0.8226</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
         <v>0.6956</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>0.69820000000000004</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>0.61639999999999995</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>0.77439999999999998</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0.5726</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>0.8226</v>
-      </c>
-      <c r="L7">
-        <v>0.25</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -906,33 +921,33 @@
         <v>6.4794</v>
       </c>
       <c r="F8">
+        <f>SUM(C8-H8/2)</f>
+        <v>6.2306999999999997</v>
+      </c>
+      <c r="G8">
+        <f>SUM(C8+H8/2)</f>
+        <v>6.7306999999999997</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
         <v>6.4806999999999997</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>6.4885000000000002</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>6.1898</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>6.7607999999999997</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>6.2306999999999997</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>6.7306999999999997</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
       </c>
       <c r="M8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -950,33 +965,33 @@
         <v>7.7598000000000003</v>
       </c>
       <c r="F9">
+        <f>SUM(C9-H9/2)</f>
+        <v>7.5076000000000001</v>
+      </c>
+      <c r="G9">
+        <f>SUM(C9+H9/2)</f>
+        <v>8.0076000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
         <v>7.7549999999999999</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>7.758</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>7.7453000000000003</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>7.8296000000000001</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>7.5076000000000001</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
-        <v>8.0076000000000001</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
       </c>
       <c r="M9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -994,33 +1009,33 @@
         <v>1.3443000000000001</v>
       </c>
       <c r="F10">
+        <f>SUM(C10-H10/2)</f>
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="G10">
+        <f>SUM(C10+H10/2)</f>
+        <v>1.8443000000000001</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>1.3433999999999999</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>1.3480000000000001</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>1.3151999999999999</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>1.4494</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0.84430000000000005</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>1.8443000000000001</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
       </c>
       <c r="M10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1038,33 +1053,33 @@
         <v>27.023699999999998</v>
       </c>
       <c r="F11">
+        <f>SUM(C11-H11/2)</f>
+        <v>26.6465</v>
+      </c>
+      <c r="G11">
+        <f>SUM(C11+H11/2)</f>
+        <v>27.3965</v>
+      </c>
+      <c r="H11">
+        <v>0.75</v>
+      </c>
+      <c r="I11">
         <v>27.010200000000001</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>27.0395</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>26.634699999999999</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>27.542400000000001</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>26.6465</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>27.3965</v>
-      </c>
-      <c r="L11">
-        <v>0.75</v>
       </c>
       <c r="M11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1082,33 +1097,33 @@
         <v>309.58760000000001</v>
       </c>
       <c r="F12">
+        <f>SUM(C12-H12/2)</f>
+        <v>308.91500000000002</v>
+      </c>
+      <c r="G12">
+        <f>SUM(C12+H12/2)</f>
+        <v>309.91500000000002</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>308.73140000000001</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>309.58499999999998</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>297.98129999999998</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>323.04719999999998</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>308.91500000000002</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>309.91500000000002</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
       </c>
       <c r="M12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1126,33 +1141,33 @@
         <v>4.2971000000000004</v>
       </c>
       <c r="F13">
+        <f>SUM(C13-H13/2)</f>
+        <v>3.7854000000000001</v>
+      </c>
+      <c r="G13">
+        <f>SUM(C13+H13/2)</f>
+        <v>4.7854000000000001</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>4.2685000000000004</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>4.2957999999999998</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>3.9815999999999998</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>4.5129000000000001</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>3.7854000000000001</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>4.7854000000000001</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
       </c>
       <c r="M13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1170,33 +1185,33 @@
         <v>3.2014</v>
       </c>
       <c r="F14">
+        <f>SUM(C14-H14/2)</f>
+        <v>2.9399000000000002</v>
+      </c>
+      <c r="G14">
+        <f>SUM(C14+H14/2)</f>
+        <v>3.4399000000000002</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+      <c r="I14">
         <v>3.1837</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>3.1932999999999998</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>2.8481999999999998</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>3.4788000000000001</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>2.9399000000000002</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>3.4399000000000002</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
       </c>
       <c r="M14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1214,33 +1229,33 @@
         <v>23.925000000000001</v>
       </c>
       <c r="F15">
+        <f>SUM(C15-H15/2)</f>
+        <v>23.544</v>
+      </c>
+      <c r="G15">
+        <f>SUM(C15+H15/2)</f>
+        <v>24.294</v>
+      </c>
+      <c r="H15">
+        <v>0.75</v>
+      </c>
+      <c r="I15">
         <v>23.893000000000001</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>23.9465</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>23.118500000000001</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>25.693999999999999</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>23.544</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>24.294</v>
-      </c>
-      <c r="L15">
-        <v>0.75</v>
       </c>
       <c r="M15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1258,33 +1273,33 @@
         <v>274.07</v>
       </c>
       <c r="F16">
+        <f>SUM(C16-H16/2)</f>
+        <v>273.38</v>
+      </c>
+      <c r="G16">
+        <f>SUM(C16+H16/2)</f>
+        <v>274.38</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>273.21499999999997</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>273.90499999999997</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>267.19499999999999</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>295.64</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>273.38</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>274.38</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
       </c>
       <c r="M16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1302,33 +1317,33 @@
         <v>17.2682</v>
       </c>
       <c r="F17">
+        <f>SUM(C17-H17/2)</f>
+        <v>16.897200000000002</v>
+      </c>
+      <c r="G17">
+        <f>SUM(C17+H17/2)</f>
+        <v>17.647200000000002</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+      <c r="I17">
         <v>17.235399999999998</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>17.2881</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>14.984</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>19.4435</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>16.897200000000002</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>17.647200000000002</v>
-      </c>
-      <c r="L17">
-        <v>0.75</v>
       </c>
       <c r="M17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1346,33 +1361,33 @@
         <v>3.8040000000000003</v>
       </c>
       <c r="F18">
+        <f>SUM(C18-H18/2)</f>
+        <v>3.5432000000000001</v>
+      </c>
+      <c r="G18">
+        <f>SUM(C18+H18/2)</f>
+        <v>4.0432000000000006</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
         <v>3.7768000000000002</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>3.8046000000000002</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>3.5264000000000002</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>4.1559999999999997</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>3.5432000000000001</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>4.0432000000000006</v>
-      </c>
-      <c r="L18">
-        <v>0.5</v>
       </c>
       <c r="M18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1390,33 +1405,33 @@
         <v>64.780100000000004</v>
       </c>
       <c r="F19">
+        <f>SUM(C19-H19/2)</f>
+        <v>64.552300000000002</v>
+      </c>
+      <c r="G19">
+        <f>SUM(C19+H19/2)</f>
+        <v>65.402299999999997</v>
+      </c>
+      <c r="H19">
+        <v>0.85</v>
+      </c>
+      <c r="I19">
         <v>64.653499999999994</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>65.299499999999995</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>48.831499999999998</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>85.941000000000003</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>64.552300000000002</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
-        <v>65.402299999999997</v>
-      </c>
-      <c r="L19">
-        <v>0.85</v>
       </c>
       <c r="M19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1434,33 +1449,33 @@
         <v>2.8292999999999999</v>
       </c>
       <c r="F20">
+        <f>SUM(C20-H20/2)</f>
+        <v>2.5710999999999999</v>
+      </c>
+      <c r="G20">
+        <f>SUM(C20+H20/2)</f>
+        <v>3.0710999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
         <v>2.8121999999999998</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>2.8226</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>2.5608</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>3.0748000000000002</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>2.5710999999999999</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>3.0710999999999999</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
       </c>
       <c r="M20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1478,33 +1493,33 @@
         <v>14.3399</v>
       </c>
       <c r="F21">
+        <f>SUM(C21-H21/2)</f>
+        <v>13.9018</v>
+      </c>
+      <c r="G21">
+        <f>SUM(C21+H21/2)</f>
+        <v>14.6518</v>
+      </c>
+      <c r="H21">
+        <v>0.75</v>
+      </c>
+      <c r="I21">
         <v>14.2012</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>14.2852</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>11.7112</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>16.966000000000001</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>13.9018</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>14.6518</v>
-      </c>
-      <c r="L21">
-        <v>0.75</v>
       </c>
       <c r="M21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1522,33 +1537,33 @@
         <v>0.76790000000000003</v>
       </c>
       <c r="F22">
+        <f>SUM(C22-H22/2)</f>
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="G22">
+        <f>SUM(C22+H22/2)</f>
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="H22">
+        <v>0.25</v>
+      </c>
+      <c r="I22">
         <v>0.76700000000000002</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>0.76910000000000001</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>0.68049999999999999</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>0.80110000000000003</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>0.64290000000000003</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
-        <v>0.89290000000000003</v>
-      </c>
-      <c r="L22">
-        <v>0.25</v>
       </c>
       <c r="M22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1566,33 +1581,33 @@
         <v>1.4402000000000001</v>
       </c>
       <c r="F23">
+        <f>SUM(C23-H23/2)</f>
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="G23">
+        <f>SUM(C23+H23/2)</f>
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
         <v>1.4443999999999999</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>1.4515</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>1.3678999999999999</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>1.6607000000000001</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="L23">
-        <v>0.5</v>
       </c>
       <c r="M23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1610,33 +1625,33 @@
         <v>1.4265999999999999</v>
       </c>
       <c r="F24">
+        <f>SUM(C24-H24/2)</f>
+        <v>1.1781999999999999</v>
+      </c>
+      <c r="G24">
+        <f>SUM(C24+H24/2)</f>
+        <v>1.6781999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
         <v>1.4261999999999999</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>1.4309000000000001</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>1.3001</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>1.6106</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>1.1781999999999999</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>1.6781999999999999</v>
-      </c>
-      <c r="L24">
-        <v>0.5</v>
       </c>
       <c r="M24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1654,33 +1669,33 @@
         <v>1.0953999999999999</v>
       </c>
       <c r="F25">
+        <f>SUM(C25-H25/2)</f>
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="G25">
+        <f>SUM(C25+H25/2)</f>
+        <v>1.2217</v>
+      </c>
+      <c r="H25">
+        <v>0.25</v>
+      </c>
+      <c r="I25">
         <v>1.0962000000000001</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>1.0982000000000001</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>1.0210999999999999</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>1.1203000000000001</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>0.97170000000000001</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>1.2217</v>
-      </c>
-      <c r="L25">
-        <v>0.25</v>
       </c>
       <c r="M25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1698,33 +1713,33 @@
         <v>1.6212000000000002</v>
       </c>
       <c r="F26">
+        <f>SUM(C26-H26/2)</f>
+        <v>1.3701000000000001</v>
+      </c>
+      <c r="G26">
+        <f>SUM(C26+H26/2)</f>
+        <v>1.8701000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
         <v>1.6177999999999999</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>1.6245000000000001</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>1.3904000000000001</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>1.8991</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>1.3701000000000001</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>1.8701000000000001</v>
-      </c>
-      <c r="L26">
-        <v>0.5</v>
       </c>
       <c r="M26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1742,33 +1757,33 @@
         <v>1.8313999999999999</v>
       </c>
       <c r="F27">
+        <f>SUM(C27-H27/2)</f>
+        <v>1.3351999999999999</v>
+      </c>
+      <c r="G27">
+        <f>SUM(C27+H27/2)</f>
+        <v>2.3351999999999999</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>1.8346</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>1.8403</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>1.8308</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>2.242</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
-        <v>1.3351999999999999</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
-        <v>2.3351999999999999</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
       </c>
       <c r="M27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1786,33 +1801,33 @@
         <v>1.8141</v>
       </c>
       <c r="F28">
+        <f>SUM(C28-H28/2)</f>
+        <v>1.5639000000000001</v>
+      </c>
+      <c r="G28">
+        <f>SUM(C28+H28/2)</f>
+        <v>2.0639000000000003</v>
+      </c>
+      <c r="H28">
+        <v>0.5</v>
+      </c>
+      <c r="I28">
         <v>1.8110999999999999</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>1.8152999999999999</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>1.8110999999999999</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>2.0973999999999999</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>1.5639000000000001</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
-        <v>2.0639000000000003</v>
-      </c>
-      <c r="L28">
-        <v>0.5</v>
       </c>
       <c r="M28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1830,33 +1845,33 @@
         <v>1.3931</v>
       </c>
       <c r="F29">
+        <f>SUM(C29-H29/2)</f>
+        <v>1.268</v>
+      </c>
+      <c r="G29">
+        <f>SUM(C29+H29/2)</f>
+        <v>1.518</v>
+      </c>
+      <c r="H29">
+        <v>0.25</v>
+      </c>
+      <c r="I29">
         <v>1.391</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>1.3942000000000001</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>1.3414999999999999</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <v>1.5572999999999999</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>1.268</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
-        <v>1.518</v>
-      </c>
-      <c r="L29">
-        <v>0.25</v>
       </c>
       <c r="M29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1874,33 +1889,33 @@
         <v>2.0615999999999999</v>
       </c>
       <c r="F30">
+        <f>SUM(C30-H30/2)</f>
+        <v>1.8077000000000001</v>
+      </c>
+      <c r="G30">
+        <f>SUM(C30+H30/2)</f>
+        <v>2.3077000000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.5</v>
+      </c>
+      <c r="I30">
         <v>2.0531999999999999</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>2.0606</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>1.9378</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>2.5592999999999999</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
-        <v>1.8077000000000001</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="2"/>
-        <v>2.3077000000000001</v>
-      </c>
-      <c r="L30">
-        <v>0.5</v>
       </c>
       <c r="M30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1918,33 +1933,33 @@
         <v>0.78460000000000008</v>
       </c>
       <c r="F31">
+        <f>SUM(C31-H31/2)</f>
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G31">
+        <f>SUM(C31+H31/2)</f>
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H31">
+        <v>0.25</v>
+      </c>
+      <c r="I31">
         <v>0.77869999999999995</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>0.78220000000000001</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>0.68279999999999996</v>
       </c>
-      <c r="I31">
+      <c r="L31">
         <v>0.81610000000000005</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="L31">
-        <v>0.25</v>
       </c>
       <c r="M31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1962,33 +1977,33 @@
         <v>0.78689999999999993</v>
       </c>
       <c r="F32">
+        <f>SUM(C32-H32/2)</f>
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="G32">
+        <f>SUM(C32+H32/2)</f>
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="H32">
+        <v>0.25</v>
+      </c>
+      <c r="I32">
         <v>0.78669999999999995</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>0.78910000000000002</v>
       </c>
-      <c r="H32">
+      <c r="K32">
         <v>0.69359999999999999</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <v>0.81169999999999998</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="2"/>
-        <v>0.91259999999999997</v>
-      </c>
-      <c r="L32">
-        <v>0.25</v>
       </c>
       <c r="M32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2006,33 +2021,33 @@
         <v>123.8141</v>
       </c>
       <c r="F33">
+        <f>SUM(C33-H33/2)</f>
+        <v>123.4825</v>
+      </c>
+      <c r="G33">
+        <f>SUM(C33+H33/2)</f>
+        <v>124.3325</v>
+      </c>
+      <c r="H33">
+        <v>0.85</v>
+      </c>
+      <c r="I33">
         <v>123.7543</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>124.205</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>121.7154</v>
       </c>
-      <c r="I33">
+      <c r="L33">
         <v>141.05260000000001</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>123.4825</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="2"/>
-        <v>124.3325</v>
-      </c>
-      <c r="L33">
-        <v>0.85</v>
       </c>
       <c r="M33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2046,37 +2061,37 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E51" si="3">SUM(C34+D34)</f>
+        <f t="shared" ref="E34:E51" si="1">SUM(C34+D34)</f>
         <v>1.131</v>
       </c>
       <c r="F34">
+        <f>SUM(C34-H34/2)</f>
+        <v>1.0054000000000001</v>
+      </c>
+      <c r="G34">
+        <f>SUM(C34+H34/2)</f>
+        <v>1.2554000000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.25</v>
+      </c>
+      <c r="I34">
         <v>1.129</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>1.1315</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>1.054</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <v>1.1707000000000001</v>
-      </c>
-      <c r="J34">
-        <f t="shared" ref="J34:J51" si="4">SUM(C34-L34/2)</f>
-        <v>1.0054000000000001</v>
-      </c>
-      <c r="K34">
-        <f t="shared" ref="K34:K65" si="5">SUM(C34+L34/2)</f>
-        <v>1.2554000000000001</v>
-      </c>
-      <c r="L34">
-        <v>0.25</v>
       </c>
       <c r="M34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2090,37 +2105,37 @@
         <v>1.9E-3</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.4371</v>
       </c>
       <c r="F35">
+        <f>SUM(C35-H35/2)</f>
+        <v>1.1852</v>
+      </c>
+      <c r="G35">
+        <f>SUM(C35+H35/2)</f>
+        <v>1.6852</v>
+      </c>
+      <c r="H35">
+        <v>0.5</v>
+      </c>
+      <c r="I35">
         <v>1.4319999999999999</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>1.4359</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>1.3835999999999999</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <v>1.593</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>1.1852</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="5"/>
-        <v>1.6852</v>
-      </c>
-      <c r="L35">
-        <v>0.5</v>
       </c>
       <c r="M35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2134,37 +2149,37 @@
         <v>-1.9E-3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.2616000000000001</v>
       </c>
       <c r="F36">
+        <f>SUM(C36-H36/2)</f>
+        <v>1.1385000000000001</v>
+      </c>
+      <c r="G36">
+        <f>SUM(C36+H36/2)</f>
+        <v>1.3885000000000001</v>
+      </c>
+      <c r="H36">
+        <v>0.25</v>
+      </c>
+      <c r="I36">
         <v>1.2627999999999999</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>1.2663</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>1.1919</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>1.4692000000000001</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="4"/>
-        <v>1.1385000000000001</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="5"/>
-        <v>1.3885000000000001</v>
-      </c>
-      <c r="L36">
-        <v>0.25</v>
       </c>
       <c r="M36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2178,37 +2193,37 @@
         <v>-1.5E-3</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.96880000000000011</v>
       </c>
       <c r="F37">
+        <f>SUM(C37-H37/2)</f>
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="G37">
+        <f>SUM(C37+H37/2)</f>
+        <v>1.0952999999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.25</v>
+      </c>
+      <c r="I37">
         <v>0.97</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>0.97230000000000005</v>
       </c>
-      <c r="H37">
+      <c r="K37">
         <v>0.90459999999999996</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <v>1.0327999999999999</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="4"/>
-        <v>0.84530000000000005</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="5"/>
-        <v>1.0952999999999999</v>
-      </c>
-      <c r="L37">
-        <v>0.25</v>
       </c>
       <c r="M37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2222,37 +2237,37 @@
         <v>-0.1225</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>109.5</v>
       </c>
       <c r="F38">
+        <f>SUM(C38-H38/2)</f>
+        <v>109.19750000000001</v>
+      </c>
+      <c r="G38">
+        <f>SUM(C38+H38/2)</f>
+        <v>110.0475</v>
+      </c>
+      <c r="H38">
+        <v>0.85</v>
+      </c>
+      <c r="I38">
         <v>109.52500000000001</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>109.905</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>107.64449999999999</v>
       </c>
-      <c r="I38">
+      <c r="L38">
         <v>125.855</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="4"/>
-        <v>109.19750000000001</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="5"/>
-        <v>110.0475</v>
-      </c>
-      <c r="L38">
-        <v>0.85</v>
       </c>
       <c r="M38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2266,37 +2281,37 @@
         <v>1E-3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.4424000000000001</v>
       </c>
       <c r="F39">
+        <f>SUM(C39-H39/2)</f>
+        <v>7.1913999999999998</v>
+      </c>
+      <c r="G39">
+        <f>SUM(C39+H39/2)</f>
+        <v>7.6913999999999998</v>
+      </c>
+      <c r="H39">
+        <v>0.5</v>
+      </c>
+      <c r="I39">
         <v>7.4367000000000001</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>7.4459</v>
       </c>
-      <c r="H39">
+      <c r="K39">
         <v>7.3204000000000002</v>
       </c>
-      <c r="I39">
+      <c r="L39">
         <v>7.6281999999999996</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="4"/>
-        <v>7.1913999999999998</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="5"/>
-        <v>7.6913999999999998</v>
-      </c>
-      <c r="L39">
-        <v>0.5</v>
       </c>
       <c r="M39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2310,37 +2325,37 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9.1840000000000011</v>
       </c>
       <c r="F40">
+        <f>SUM(C40-H40/2)</f>
+        <v>8.8015000000000008</v>
+      </c>
+      <c r="G40">
+        <f>SUM(C40+H40/2)</f>
+        <v>9.5515000000000008</v>
+      </c>
+      <c r="H40">
+        <v>0.75</v>
+      </c>
+      <c r="I40">
         <v>9.1615000000000002</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>9.2018000000000004</v>
       </c>
-      <c r="H40">
+      <c r="K40">
         <v>8.3102</v>
       </c>
-      <c r="I40">
+      <c r="L40">
         <v>9.7620000000000005</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="4"/>
-        <v>8.8015000000000008</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="5"/>
-        <v>9.5515000000000008</v>
-      </c>
-      <c r="L40">
-        <v>0.75</v>
       </c>
       <c r="M40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2354,37 +2369,37 @@
         <v>-4.36E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9.0934000000000008</v>
       </c>
       <c r="F41">
+        <f>SUM(C41-H41/2)</f>
+        <v>8.7620000000000005</v>
+      </c>
+      <c r="G41">
+        <f>SUM(C41+H41/2)</f>
+        <v>9.5120000000000005</v>
+      </c>
+      <c r="H41">
+        <v>0.75</v>
+      </c>
+      <c r="I41">
         <v>9.1159999999999997</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>9.1960999999999995</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>9.1159999999999997</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>9.6770999999999994</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="4"/>
-        <v>8.7620000000000005</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="5"/>
-        <v>9.5120000000000005</v>
-      </c>
-      <c r="L41">
-        <v>0.75</v>
       </c>
       <c r="M41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2398,37 +2413,37 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.5897999999999994</v>
       </c>
       <c r="F42">
+        <f>SUM(C42-H42/2)</f>
+        <v>6.3373999999999997</v>
+      </c>
+      <c r="G42">
+        <f>SUM(C42+H42/2)</f>
+        <v>6.8373999999999997</v>
+      </c>
+      <c r="H42">
+        <v>0.5</v>
+      </c>
+      <c r="I42">
         <v>6.5791000000000004</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>6.5911999999999997</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>6.3746999999999998</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <v>7.0766</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="4"/>
-        <v>6.3373999999999997</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="5"/>
-        <v>6.8373999999999997</v>
-      </c>
-      <c r="L42">
-        <v>0.5</v>
       </c>
       <c r="M42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2442,37 +2457,37 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.1334999999999997</v>
       </c>
       <c r="F43">
+        <f>SUM(C43-H43/2)</f>
+        <v>7.7492000000000001</v>
+      </c>
+      <c r="G43">
+        <f>SUM(C43+H43/2)</f>
+        <v>8.4992000000000001</v>
+      </c>
+      <c r="H43">
+        <v>0.75</v>
+      </c>
+      <c r="I43">
         <v>8.1047999999999991</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>8.1341999999999999</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>7.2914000000000003</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <v>8.9928000000000008</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="4"/>
-        <v>7.7492000000000001</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="5"/>
-        <v>8.4992000000000001</v>
-      </c>
-      <c r="L43">
-        <v>0.75</v>
       </c>
       <c r="M43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -2486,37 +2501,37 @@
         <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.0532000000000004</v>
       </c>
       <c r="F44">
+        <f>SUM(C44-H44/2)</f>
+        <v>7.8391999999999999</v>
+      </c>
+      <c r="G44">
+        <f>SUM(C44+H44/2)</f>
+        <v>8.3391999999999999</v>
+      </c>
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+      <c r="I44">
         <v>8.0638000000000005</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>8.1448999999999998</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>8.0325000000000006</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <v>8.8371999999999993</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="4"/>
-        <v>7.8391999999999999</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="5"/>
-        <v>8.3391999999999999</v>
-      </c>
-      <c r="L44">
-        <v>0.5</v>
       </c>
       <c r="M44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -2530,37 +2545,37 @@
         <v>0.25219999999999998</v>
       </c>
       <c r="E45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>86.0381</v>
       </c>
       <c r="F45">
+        <f>SUM(C45-H45/2)</f>
+        <v>85.360900000000001</v>
+      </c>
+      <c r="G45">
+        <f>SUM(C45+H45/2)</f>
+        <v>86.210899999999995</v>
+      </c>
+      <c r="H45">
+        <v>0.85</v>
+      </c>
+      <c r="I45">
         <v>85.364999999999995</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>85.860399999999998</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>77.6096</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <v>97.283100000000005</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="4"/>
-        <v>85.360900000000001</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="5"/>
-        <v>86.210899999999995</v>
-      </c>
-      <c r="L45">
-        <v>0.85</v>
       </c>
       <c r="M45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -2574,37 +2589,37 @@
         <v>5.7099999999999998E-2</v>
       </c>
       <c r="E46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>86.841700000000003</v>
       </c>
       <c r="F46">
+        <f>SUM(C46-H46/2)</f>
+        <v>86.3596</v>
+      </c>
+      <c r="G46">
+        <f>SUM(C46+H46/2)</f>
+        <v>87.209599999999995</v>
+      </c>
+      <c r="H46">
+        <v>0.85</v>
+      </c>
+      <c r="I46">
         <v>86.552599999999998</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>86.947500000000005</v>
       </c>
-      <c r="H46">
+      <c r="K46">
         <v>78.959299999999999</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <v>101.1538</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="4"/>
-        <v>86.3596</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="5"/>
-        <v>87.209599999999995</v>
-      </c>
-      <c r="L46">
-        <v>0.85</v>
       </c>
       <c r="M46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -2618,37 +2633,37 @@
         <v>7.5399999999999995E-2</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>113.0804</v>
       </c>
       <c r="F47">
+        <f>SUM(C47-H47/2)</f>
+        <v>112.58</v>
+      </c>
+      <c r="G47">
+        <f>SUM(C47+H47/2)</f>
+        <v>113.42999999999999</v>
+      </c>
+      <c r="H47">
+        <v>0.85</v>
+      </c>
+      <c r="I47">
         <v>112.8047</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>113.15</v>
       </c>
-      <c r="H47">
+      <c r="K47">
         <v>111.48260000000001</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <v>134.6147</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="4"/>
-        <v>112.58</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="5"/>
-        <v>113.42999999999999</v>
-      </c>
-      <c r="L47">
-        <v>0.85</v>
       </c>
       <c r="M47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2662,37 +2677,37 @@
         <v>0.1022</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>157.50190000000001</v>
       </c>
       <c r="F48">
+        <f>SUM(C48-H48/2)</f>
+        <v>156.8997</v>
+      </c>
+      <c r="G48">
+        <f>SUM(C48+H48/2)</f>
+        <v>157.8997</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
         <v>156.965</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>157.57</v>
       </c>
-      <c r="H48">
+      <c r="K48">
         <v>151.68279999999999</v>
       </c>
-      <c r="I48">
+      <c r="L48">
         <v>195.88509999999999</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="4"/>
-        <v>156.8997</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="5"/>
-        <v>157.8997</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
       </c>
       <c r="M48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -2706,37 +2721,37 @@
         <v>-8.3099999999999993E-2</v>
       </c>
       <c r="E49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>76.424899999999994</v>
       </c>
       <c r="F49">
+        <f>SUM(C49-H49/2)</f>
+        <v>76.082999999999998</v>
+      </c>
+      <c r="G49">
+        <f>SUM(C49+H49/2)</f>
+        <v>76.932999999999993</v>
+      </c>
+      <c r="H49">
+        <v>0.85</v>
+      </c>
+      <c r="I49">
         <v>76.232799999999997</v>
       </c>
-      <c r="G49">
+      <c r="J49">
         <v>76.693799999999996</v>
       </c>
-      <c r="H49">
+      <c r="K49">
         <v>71.602599999999995</v>
       </c>
-      <c r="I49">
+      <c r="L49">
         <v>92.404499999999999</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="4"/>
-        <v>76.082999999999998</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="5"/>
-        <v>76.932999999999993</v>
-      </c>
-      <c r="L49">
-        <v>0.85</v>
       </c>
       <c r="M49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -2750,37 +2765,37 @@
         <v>-4.48E-2</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>81.547700000000006</v>
       </c>
       <c r="F50">
+        <f>SUM(C50-H50/2)</f>
+        <v>81.167500000000004</v>
+      </c>
+      <c r="G50">
+        <f>SUM(C50+H50/2)</f>
+        <v>82.017499999999998</v>
+      </c>
+      <c r="H50">
+        <v>0.85</v>
+      </c>
+      <c r="I50">
         <v>81.376000000000005</v>
       </c>
-      <c r="G50">
+      <c r="J50">
         <v>81.764200000000002</v>
       </c>
-      <c r="H50">
+      <c r="K50">
         <v>78.940799999999996</v>
       </c>
-      <c r="I50">
+      <c r="L50">
         <v>92.791200000000003</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="4"/>
-        <v>81.167500000000004</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="5"/>
-        <v>82.017499999999998</v>
-      </c>
-      <c r="L50">
-        <v>0.85</v>
       </c>
       <c r="M50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -2794,31 +2809,31 @@
         <v>-4.4600000000000001E-2</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.6319999999999997</v>
       </c>
       <c r="F51">
+        <f>SUM(C51-H51/2)</f>
+        <v>7.1765999999999996</v>
+      </c>
+      <c r="G51">
+        <f>SUM(C51+H51/2)</f>
+        <v>8.1766000000000005</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>7.6695000000000002</v>
       </c>
-      <c r="G51">
+      <c r="J51">
         <v>7.7335000000000003</v>
       </c>
-      <c r="H51">
+      <c r="K51">
         <v>6.8426999999999998</v>
       </c>
-      <c r="I51">
+      <c r="L51">
         <v>10.321</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="4"/>
-        <v>7.1765999999999996</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="5"/>
-        <v>8.1766000000000005</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
       </c>
       <c r="M51">
         <v>50</v>
@@ -2830,6 +2845,11 @@
     <sortCondition ref="B2:B51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/DataSets/PriceBlotterFX.xlsx
+++ b/DataSets/PriceBlotterFX.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/Code/adaptableblotter-demo/DataSets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="44320" windowHeight="21940"/>
   </bookViews>
   <sheets>
     <sheet name="FXPrice" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -570,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,25 +585,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="12" width="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -606,13 +611,13 @@
         <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>59</v>
@@ -621,7 +626,7 @@
         <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>62</v>
@@ -639,7 +644,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -647,25 +652,25 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>0.98850000000000005</v>
+        <f>SUM(H2+D2)</f>
+        <v>0.99070000000000003</v>
       </c>
       <c r="D2">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">SUM(C2+D2)</f>
-        <v>0.99070000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="F2">
-        <f>SUM(C2-H2/2)</f>
+        <f>SUM(H2-E2/2)</f>
         <v>0.86350000000000005</v>
       </c>
       <c r="G2">
-        <f>SUM(C2+H2/2)</f>
+        <f>SUM(H2+E2/2)</f>
         <v>1.1135000000000002</v>
       </c>
       <c r="H2">
-        <v>0.25</v>
+        <v>0.98850000000000005</v>
       </c>
       <c r="I2">
         <v>0.98560000000000003</v>
@@ -683,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -691,25 +696,25 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>0.75919999999999999</v>
+        <f>SUM(H3+D3)</f>
+        <v>0.76100000000000001</v>
       </c>
       <c r="D3">
         <v>1.8E-3</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0.76100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F3">
-        <f>SUM(C3-H3/2)</f>
+        <f>SUM(H3-E3/2)</f>
         <v>0.63419999999999999</v>
       </c>
       <c r="G3">
-        <f>SUM(C3+H3/2)</f>
+        <f>SUM(H3+E3/2)</f>
         <v>0.88419999999999999</v>
       </c>
       <c r="H3">
-        <v>0.25</v>
+        <v>0.75919999999999999</v>
       </c>
       <c r="I3">
         <v>0.75629999999999997</v>
@@ -727,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -735,25 +740,25 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1.1212</v>
+        <f>SUM(H4+D4)</f>
+        <v>1.1256999999999999</v>
       </c>
       <c r="D4">
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1.1256999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
-        <f>SUM(C4-H4/2)</f>
+        <f>SUM(H4-E4/2)</f>
         <v>0.99619999999999997</v>
       </c>
       <c r="G4">
-        <f>SUM(C4+H4/2)</f>
+        <f>SUM(H4+E4/2)</f>
         <v>1.2462</v>
       </c>
       <c r="H4">
-        <v>0.25</v>
+        <v>1.1212</v>
       </c>
       <c r="I4">
         <v>1.1164000000000001</v>
@@ -771,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -779,25 +784,25 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>0.88160000000000005</v>
+        <f>SUM(H5+D5)</f>
+        <v>0.8801000000000001</v>
       </c>
       <c r="D5">
         <v>-1.5E-3</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.8801000000000001</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <f>SUM(C5-H5/2)</f>
+        <f>SUM(H5-E5/2)</f>
         <v>0.38160000000000005</v>
       </c>
       <c r="G5">
-        <f>SUM(C5+H5/2)</f>
+        <f>SUM(H5+E5/2)</f>
         <v>1.3816000000000002</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.88160000000000005</v>
       </c>
       <c r="I5">
         <v>0.87990000000000002</v>
@@ -815,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -823,25 +828,25 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <v>0.67710000000000004</v>
+        <f>SUM(H6+D6)</f>
+        <v>0.67600000000000005</v>
       </c>
       <c r="D6">
         <v>-1.1000000000000001E-3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.67600000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="F6">
-        <f>SUM(C6-H6/2)</f>
+        <f>SUM(H6-E6/2)</f>
         <v>0.55210000000000004</v>
       </c>
       <c r="G6">
-        <f>SUM(C6+H6/2)</f>
+        <f>SUM(H6+E6/2)</f>
         <v>0.80210000000000004</v>
       </c>
       <c r="H6">
-        <v>0.25</v>
+        <v>0.67710000000000004</v>
       </c>
       <c r="I6">
         <v>0.6754</v>
@@ -859,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -867,25 +872,25 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.6976</v>
+        <f>SUM(H7+D7)</f>
+        <v>0.69740000000000002</v>
       </c>
       <c r="D7">
         <v>-2.0000000000000001E-4</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.69740000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="F7">
-        <f>SUM(C7-H7/2)</f>
+        <f>SUM(H7-E7/2)</f>
         <v>0.5726</v>
       </c>
       <c r="G7">
-        <f>SUM(C7+H7/2)</f>
+        <f>SUM(H7+E7/2)</f>
         <v>0.8226</v>
       </c>
       <c r="H7">
-        <v>0.25</v>
+        <v>0.6976</v>
       </c>
       <c r="I7">
         <v>0.6956</v>
@@ -903,7 +908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -911,25 +916,25 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>6.4806999999999997</v>
+        <f>SUM(H8+D8)</f>
+        <v>6.4794</v>
       </c>
       <c r="D8">
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>6.4794</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <f>SUM(C8-H8/2)</f>
+        <f>SUM(H8-E8/2)</f>
         <v>6.2306999999999997</v>
       </c>
       <c r="G8">
-        <f>SUM(C8+H8/2)</f>
+        <f>SUM(H8+E8/2)</f>
         <v>6.7306999999999997</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>6.4806999999999997</v>
       </c>
       <c r="I8">
         <v>6.4806999999999997</v>
@@ -947,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -955,25 +960,25 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>7.7576000000000001</v>
+        <f>SUM(H9+D9)</f>
+        <v>7.7598000000000003</v>
       </c>
       <c r="D9">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>7.7598000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <f>SUM(C9-H9/2)</f>
+        <f>SUM(H9-E9/2)</f>
         <v>7.5076000000000001</v>
       </c>
       <c r="G9">
-        <f>SUM(C9+H9/2)</f>
+        <f>SUM(H9+E9/2)</f>
         <v>8.0076000000000001</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>7.7576000000000001</v>
       </c>
       <c r="I9">
         <v>7.7549999999999999</v>
@@ -991,7 +996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -999,25 +1004,25 @@
         <v>36</v>
       </c>
       <c r="C10">
+        <f>SUM(H10+D10)</f>
         <v>1.3443000000000001</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>SUM(H10-E10/2)</f>
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="G10">
+        <f>SUM(H10+E10/2)</f>
+        <v>1.8443000000000001</v>
+      </c>
+      <c r="H10">
         <v>1.3443000000000001</v>
-      </c>
-      <c r="F10">
-        <f>SUM(C10-H10/2)</f>
-        <v>0.84430000000000005</v>
-      </c>
-      <c r="G10">
-        <f>SUM(C10+H10/2)</f>
-        <v>1.8443000000000001</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
       </c>
       <c r="I10">
         <v>1.3433999999999999</v>
@@ -1035,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1043,25 +1048,25 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>27.0215</v>
+        <f>SUM(H11+D11)</f>
+        <v>27.023699999999998</v>
       </c>
       <c r="D11">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>27.023699999999998</v>
+        <v>0.75</v>
       </c>
       <c r="F11">
-        <f>SUM(C11-H11/2)</f>
+        <f>SUM(H11-E11/2)</f>
         <v>26.6465</v>
       </c>
       <c r="G11">
-        <f>SUM(C11+H11/2)</f>
+        <f>SUM(H11+E11/2)</f>
         <v>27.3965</v>
       </c>
       <c r="H11">
-        <v>0.75</v>
+        <v>27.0215</v>
       </c>
       <c r="I11">
         <v>27.010200000000001</v>
@@ -1079,7 +1084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1087,25 +1092,25 @@
         <v>41</v>
       </c>
       <c r="C12">
-        <v>309.41500000000002</v>
+        <f>SUM(H12+D12)</f>
+        <v>309.58760000000001</v>
       </c>
       <c r="D12">
         <v>0.1726</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>309.58760000000001</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <f>SUM(C12-H12/2)</f>
+        <f>SUM(H12-E12/2)</f>
         <v>308.91500000000002</v>
       </c>
       <c r="G12">
-        <f>SUM(C12+H12/2)</f>
+        <f>SUM(H12+E12/2)</f>
         <v>309.91500000000002</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>309.41500000000002</v>
       </c>
       <c r="I12">
         <v>308.73140000000001</v>
@@ -1123,7 +1128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1131,25 +1136,25 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>4.2854000000000001</v>
+        <f>SUM(H13+D13)</f>
+        <v>4.2971000000000004</v>
       </c>
       <c r="D13">
         <v>1.17E-2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>4.2971000000000004</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <f>SUM(C13-H13/2)</f>
+        <f>SUM(H13-E13/2)</f>
         <v>3.7854000000000001</v>
       </c>
       <c r="G13">
-        <f>SUM(C13+H13/2)</f>
+        <f>SUM(H13+E13/2)</f>
         <v>4.7854000000000001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>4.2854000000000001</v>
       </c>
       <c r="I13">
         <v>4.2685000000000004</v>
@@ -1167,7 +1172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1175,25 +1180,25 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>3.1899000000000002</v>
+        <f>SUM(H14+D14)</f>
+        <v>3.2014</v>
       </c>
       <c r="D14">
         <v>1.15E-2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>3.2014</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
-        <f>SUM(C14-H14/2)</f>
+        <f>SUM(H14-E14/2)</f>
         <v>2.9399000000000002</v>
       </c>
       <c r="G14">
-        <f>SUM(C14+H14/2)</f>
+        <f>SUM(H14+E14/2)</f>
         <v>3.4399000000000002</v>
       </c>
       <c r="H14">
-        <v>0.5</v>
+        <v>3.1899000000000002</v>
       </c>
       <c r="I14">
         <v>3.1837</v>
@@ -1211,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1219,25 +1224,25 @@
         <v>47</v>
       </c>
       <c r="C15">
-        <v>23.919</v>
+        <f>SUM(H15+D15)</f>
+        <v>23.925000000000001</v>
       </c>
       <c r="D15">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>23.925000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F15">
-        <f>SUM(C15-H15/2)</f>
+        <f>SUM(H15-E15/2)</f>
         <v>23.544</v>
       </c>
       <c r="G15">
-        <f>SUM(C15+H15/2)</f>
+        <f>SUM(H15+E15/2)</f>
         <v>24.294</v>
       </c>
       <c r="H15">
-        <v>0.75</v>
+        <v>23.919</v>
       </c>
       <c r="I15">
         <v>23.893000000000001</v>
@@ -1255,7 +1260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1263,25 +1268,25 @@
         <v>43</v>
       </c>
       <c r="C16">
-        <v>273.88</v>
+        <f>SUM(H16+D16)</f>
+        <v>274.07</v>
       </c>
       <c r="D16">
         <v>0.19</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>274.07</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <f>SUM(C16-H16/2)</f>
+        <f>SUM(H16-E16/2)</f>
         <v>273.38</v>
       </c>
       <c r="G16">
-        <f>SUM(C16+H16/2)</f>
+        <f>SUM(H16+E16/2)</f>
         <v>274.38</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>273.88</v>
       </c>
       <c r="I16">
         <v>273.21499999999997</v>
@@ -1299,7 +1304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1307,25 +1312,25 @@
         <v>42</v>
       </c>
       <c r="C17">
-        <v>17.272200000000002</v>
+        <f>SUM(H17+D17)</f>
+        <v>17.2682</v>
       </c>
       <c r="D17">
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>17.2682</v>
+        <v>0.75</v>
       </c>
       <c r="F17">
-        <f>SUM(C17-H17/2)</f>
+        <f>SUM(H17-E17/2)</f>
         <v>16.897200000000002</v>
       </c>
       <c r="G17">
-        <f>SUM(C17+H17/2)</f>
+        <f>SUM(H17+E17/2)</f>
         <v>17.647200000000002</v>
       </c>
       <c r="H17">
-        <v>0.75</v>
+        <v>17.272200000000002</v>
       </c>
       <c r="I17">
         <v>17.235399999999998</v>
@@ -1343,7 +1348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1351,25 +1356,25 @@
         <v>46</v>
       </c>
       <c r="C18">
-        <v>3.7932000000000001</v>
+        <f>SUM(H18+D18)</f>
+        <v>3.8040000000000003</v>
       </c>
       <c r="D18">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>3.8040000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <f>SUM(C18-H18/2)</f>
+        <f>SUM(H18-E18/2)</f>
         <v>3.5432000000000001</v>
       </c>
       <c r="G18">
-        <f>SUM(C18+H18/2)</f>
+        <f>SUM(H18+E18/2)</f>
         <v>4.0432000000000006</v>
       </c>
       <c r="H18">
-        <v>0.5</v>
+        <v>3.7932000000000001</v>
       </c>
       <c r="I18">
         <v>3.7768000000000002</v>
@@ -1387,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1395,25 +1400,25 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>64.9773</v>
+        <f>SUM(H19+D19)</f>
+        <v>64.780100000000004</v>
       </c>
       <c r="D19">
         <v>-0.19719999999999999</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>64.780100000000004</v>
+        <v>0.85</v>
       </c>
       <c r="F19">
-        <f>SUM(C19-H19/2)</f>
+        <f>SUM(H19-E19/2)</f>
         <v>64.552300000000002</v>
       </c>
       <c r="G19">
-        <f>SUM(C19+H19/2)</f>
+        <f>SUM(H19+E19/2)</f>
         <v>65.402299999999997</v>
       </c>
       <c r="H19">
-        <v>0.85</v>
+        <v>64.9773</v>
       </c>
       <c r="I19">
         <v>64.653499999999994</v>
@@ -1431,7 +1436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1439,25 +1444,25 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>2.8210999999999999</v>
+        <f>SUM(H20+D20)</f>
+        <v>2.8292999999999999</v>
       </c>
       <c r="D20">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>2.8292999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F20">
-        <f>SUM(C20-H20/2)</f>
+        <f>SUM(H20-E20/2)</f>
         <v>2.5710999999999999</v>
       </c>
       <c r="G20">
-        <f>SUM(C20+H20/2)</f>
+        <f>SUM(H20+E20/2)</f>
         <v>3.0710999999999999</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
+        <v>2.8210999999999999</v>
       </c>
       <c r="I20">
         <v>2.8121999999999998</v>
@@ -1475,7 +1480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1483,25 +1488,25 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>14.2768</v>
+        <f>SUM(H21+D21)</f>
+        <v>14.3399</v>
       </c>
       <c r="D21">
         <v>6.3100000000000003E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>14.3399</v>
+        <v>0.75</v>
       </c>
       <c r="F21">
-        <f>SUM(C21-H21/2)</f>
+        <f>SUM(H21-E21/2)</f>
         <v>13.9018</v>
       </c>
       <c r="G21">
-        <f>SUM(C21+H21/2)</f>
+        <f>SUM(H21+E21/2)</f>
         <v>14.6518</v>
       </c>
       <c r="H21">
-        <v>0.75</v>
+        <v>14.2768</v>
       </c>
       <c r="I21">
         <v>14.2012</v>
@@ -1519,7 +1524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1527,25 +1532,25 @@
         <v>19</v>
       </c>
       <c r="C22">
+        <f>SUM(H22+D22)</f>
         <v>0.76790000000000003</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F22">
+        <f>SUM(H22-E22/2)</f>
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="G22">
+        <f>SUM(H22+E22/2)</f>
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="H22">
         <v>0.76790000000000003</v>
-      </c>
-      <c r="F22">
-        <f>SUM(C22-H22/2)</f>
-        <v>0.64290000000000003</v>
-      </c>
-      <c r="G22">
-        <f>SUM(C22+H22/2)</f>
-        <v>0.89290000000000003</v>
-      </c>
-      <c r="H22">
-        <v>0.25</v>
       </c>
       <c r="I22">
         <v>0.76700000000000002</v>
@@ -1563,7 +1568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1571,25 +1576,25 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>1.4450000000000001</v>
+        <f>SUM(H23+D23)</f>
+        <v>1.4402000000000001</v>
       </c>
       <c r="D23">
         <v>-4.7999999999999996E-3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>1.4402000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F23">
-        <f>SUM(C23-H23/2)</f>
+        <f>SUM(H23-E23/2)</f>
         <v>1.1950000000000001</v>
       </c>
       <c r="G23">
-        <f>SUM(C23+H23/2)</f>
+        <f>SUM(H23+E23/2)</f>
         <v>1.6950000000000001</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="I23">
         <v>1.4443999999999999</v>
@@ -1607,7 +1612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1615,25 +1620,25 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <v>1.4281999999999999</v>
+        <f>SUM(H24+D24)</f>
+        <v>1.4265999999999999</v>
       </c>
       <c r="D24">
         <v>-1.6000000000000001E-3</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>1.4265999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F24">
-        <f>SUM(C24-H24/2)</f>
+        <f>SUM(H24-E24/2)</f>
         <v>1.1781999999999999</v>
       </c>
       <c r="G24">
-        <f>SUM(C24+H24/2)</f>
+        <f>SUM(H24+E24/2)</f>
         <v>1.6781999999999999</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>1.4281999999999999</v>
       </c>
       <c r="I24">
         <v>1.4261999999999999</v>
@@ -1651,7 +1656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1659,25 +1664,25 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>1.0967</v>
+        <f>SUM(H25+D25)</f>
+        <v>1.0953999999999999</v>
       </c>
       <c r="D25">
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>1.0953999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F25">
-        <f>SUM(C25-H25/2)</f>
+        <f>SUM(H25-E25/2)</f>
         <v>0.97170000000000001</v>
       </c>
       <c r="G25">
-        <f>SUM(C25+H25/2)</f>
+        <f>SUM(H25+E25/2)</f>
         <v>1.2217</v>
       </c>
       <c r="H25">
-        <v>0.25</v>
+        <v>1.0967</v>
       </c>
       <c r="I25">
         <v>1.0962000000000001</v>
@@ -1695,7 +1700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1703,25 +1708,25 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>1.6201000000000001</v>
+        <f>SUM(H26+D26)</f>
+        <v>1.6212000000000002</v>
       </c>
       <c r="D26">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>1.6212000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="F26">
-        <f>SUM(C26-H26/2)</f>
+        <f>SUM(H26-E26/2)</f>
         <v>1.3701000000000001</v>
       </c>
       <c r="G26">
-        <f>SUM(C26+H26/2)</f>
+        <f>SUM(H26+E26/2)</f>
         <v>1.8701000000000001</v>
       </c>
       <c r="H26">
-        <v>0.5</v>
+        <v>1.6201000000000001</v>
       </c>
       <c r="I26">
         <v>1.6177999999999999</v>
@@ -1739,7 +1744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1747,25 +1752,25 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>1.8351999999999999</v>
+        <f>SUM(H27+D27)</f>
+        <v>1.8313999999999999</v>
       </c>
       <c r="D27">
         <v>-3.8E-3</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>1.8313999999999999</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <f>SUM(C27-H27/2)</f>
+        <f>SUM(H27-E27/2)</f>
         <v>1.3351999999999999</v>
       </c>
       <c r="G27">
-        <f>SUM(C27+H27/2)</f>
+        <f>SUM(H27+E27/2)</f>
         <v>2.3351999999999999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>1.8351999999999999</v>
       </c>
       <c r="I27">
         <v>1.8346</v>
@@ -1783,7 +1788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1791,25 +1796,25 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>1.8139000000000001</v>
+        <f>SUM(H28+D28)</f>
+        <v>1.8141</v>
       </c>
       <c r="D28">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>1.8141</v>
+        <v>0.5</v>
       </c>
       <c r="F28">
-        <f>SUM(C28-H28/2)</f>
+        <f>SUM(H28-E28/2)</f>
         <v>1.5639000000000001</v>
       </c>
       <c r="G28">
-        <f>SUM(C28+H28/2)</f>
+        <f>SUM(H28+E28/2)</f>
         <v>2.0639000000000003</v>
       </c>
       <c r="H28">
-        <v>0.5</v>
+        <v>1.8139000000000001</v>
       </c>
       <c r="I28">
         <v>1.8110999999999999</v>
@@ -1827,7 +1832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1835,25 +1840,25 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>1.393</v>
+        <f>SUM(H29+D29)</f>
+        <v>1.3931</v>
       </c>
       <c r="D29">
         <v>1E-4</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>1.3931</v>
+        <v>0.25</v>
       </c>
       <c r="F29">
-        <f>SUM(C29-H29/2)</f>
+        <f>SUM(H29-E29/2)</f>
         <v>1.268</v>
       </c>
       <c r="G29">
-        <f>SUM(C29+H29/2)</f>
+        <f>SUM(H29+E29/2)</f>
         <v>1.518</v>
       </c>
       <c r="H29">
-        <v>0.25</v>
+        <v>1.393</v>
       </c>
       <c r="I29">
         <v>1.391</v>
@@ -1871,7 +1876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1879,25 +1884,25 @@
         <v>18</v>
       </c>
       <c r="C30">
-        <v>2.0577000000000001</v>
+        <f>SUM(H30+D30)</f>
+        <v>2.0615999999999999</v>
       </c>
       <c r="D30">
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>2.0615999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F30">
-        <f>SUM(C30-H30/2)</f>
+        <f>SUM(H30-E30/2)</f>
         <v>1.8077000000000001</v>
       </c>
       <c r="G30">
-        <f>SUM(C30+H30/2)</f>
+        <f>SUM(H30+E30/2)</f>
         <v>2.3077000000000001</v>
       </c>
       <c r="H30">
-        <v>0.5</v>
+        <v>2.0577000000000001</v>
       </c>
       <c r="I30">
         <v>2.0531999999999999</v>
@@ -1915,7 +1920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1923,25 +1928,25 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>0.78200000000000003</v>
+        <f>SUM(H31+D31)</f>
+        <v>0.78460000000000008</v>
       </c>
       <c r="D31">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>0.78460000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="F31">
-        <f>SUM(C31-H31/2)</f>
+        <f>SUM(H31-E31/2)</f>
         <v>0.65700000000000003</v>
       </c>
       <c r="G31">
-        <f>SUM(C31+H31/2)</f>
+        <f>SUM(H31+E31/2)</f>
         <v>0.90700000000000003</v>
       </c>
       <c r="H31">
-        <v>0.25</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="I31">
         <v>0.77869999999999995</v>
@@ -1959,7 +1964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1967,25 +1972,25 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>0.78759999999999997</v>
+        <f>SUM(H32+D32)</f>
+        <v>0.78689999999999993</v>
       </c>
       <c r="D32">
         <v>-6.9999999999999999E-4</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0.78689999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="F32">
-        <f>SUM(C32-H32/2)</f>
+        <f>SUM(H32-E32/2)</f>
         <v>0.66259999999999997</v>
       </c>
       <c r="G32">
-        <f>SUM(C32+H32/2)</f>
+        <f>SUM(H32+E32/2)</f>
         <v>0.91259999999999997</v>
       </c>
       <c r="H32">
-        <v>0.25</v>
+        <v>0.78759999999999997</v>
       </c>
       <c r="I32">
         <v>0.78669999999999995</v>
@@ -2003,7 +2008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2011,25 +2016,25 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>123.9075</v>
+        <f>SUM(H33+D33)</f>
+        <v>123.8141</v>
       </c>
       <c r="D33">
         <v>-9.3399999999999997E-2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>123.8141</v>
+        <v>0.85</v>
       </c>
       <c r="F33">
-        <f>SUM(C33-H33/2)</f>
+        <f>SUM(H33-E33/2)</f>
         <v>123.4825</v>
       </c>
       <c r="G33">
-        <f>SUM(C33+H33/2)</f>
+        <f>SUM(H33+E33/2)</f>
         <v>124.3325</v>
       </c>
       <c r="H33">
-        <v>0.85</v>
+        <v>123.9075</v>
       </c>
       <c r="I33">
         <v>123.7543</v>
@@ -2047,7 +2052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2055,25 +2060,25 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>1.1304000000000001</v>
+        <f>SUM(H34+D34)</f>
+        <v>1.131</v>
       </c>
       <c r="D34">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E51" si="1">SUM(C34+D34)</f>
-        <v>1.131</v>
+        <v>0.25</v>
       </c>
       <c r="F34">
-        <f>SUM(C34-H34/2)</f>
+        <f>SUM(H34-E34/2)</f>
         <v>1.0054000000000001</v>
       </c>
       <c r="G34">
-        <f>SUM(C34+H34/2)</f>
+        <f>SUM(H34+E34/2)</f>
         <v>1.2554000000000001</v>
       </c>
       <c r="H34">
-        <v>0.25</v>
+        <v>1.1304000000000001</v>
       </c>
       <c r="I34">
         <v>1.129</v>
@@ -2091,7 +2096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2099,25 +2104,25 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>1.4352</v>
+        <f>SUM(H35+D35)</f>
+        <v>1.4371</v>
       </c>
       <c r="D35">
         <v>1.9E-3</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
-        <v>1.4371</v>
+        <v>0.5</v>
       </c>
       <c r="F35">
-        <f>SUM(C35-H35/2)</f>
+        <f>SUM(H35-E35/2)</f>
         <v>1.1852</v>
       </c>
       <c r="G35">
-        <f>SUM(C35+H35/2)</f>
+        <f>SUM(H35+E35/2)</f>
         <v>1.6852</v>
       </c>
       <c r="H35">
-        <v>0.5</v>
+        <v>1.4352</v>
       </c>
       <c r="I35">
         <v>1.4319999999999999</v>
@@ -2135,7 +2140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2143,25 +2148,25 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <v>1.2635000000000001</v>
+        <f>SUM(H36+D36)</f>
+        <v>1.2616000000000001</v>
       </c>
       <c r="D36">
         <v>-1.9E-3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
-        <v>1.2616000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F36">
-        <f>SUM(C36-H36/2)</f>
+        <f>SUM(H36-E36/2)</f>
         <v>1.1385000000000001</v>
       </c>
       <c r="G36">
-        <f>SUM(C36+H36/2)</f>
+        <f>SUM(H36+E36/2)</f>
         <v>1.3885000000000001</v>
       </c>
       <c r="H36">
-        <v>0.25</v>
+        <v>1.2635000000000001</v>
       </c>
       <c r="I36">
         <v>1.2627999999999999</v>
@@ -2179,7 +2184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2187,25 +2192,25 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>0.97030000000000005</v>
+        <f>SUM(H37+D37)</f>
+        <v>0.96880000000000011</v>
       </c>
       <c r="D37">
         <v>-1.5E-3</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
-        <v>0.96880000000000011</v>
+        <v>0.25</v>
       </c>
       <c r="F37">
-        <f>SUM(C37-H37/2)</f>
+        <f>SUM(H37-E37/2)</f>
         <v>0.84530000000000005</v>
       </c>
       <c r="G37">
-        <f>SUM(C37+H37/2)</f>
+        <f>SUM(H37+E37/2)</f>
         <v>1.0952999999999999</v>
       </c>
       <c r="H37">
-        <v>0.25</v>
+        <v>0.97030000000000005</v>
       </c>
       <c r="I37">
         <v>0.97</v>
@@ -2223,7 +2228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2231,25 +2236,25 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>109.6225</v>
+        <f>SUM(H38+D38)</f>
+        <v>109.5</v>
       </c>
       <c r="D38">
         <v>-0.1225</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
-        <v>109.5</v>
+        <v>0.85</v>
       </c>
       <c r="F38">
-        <f>SUM(C38-H38/2)</f>
+        <f>SUM(H38-E38/2)</f>
         <v>109.19750000000001</v>
       </c>
       <c r="G38">
-        <f>SUM(C38+H38/2)</f>
+        <f>SUM(H38+E38/2)</f>
         <v>110.0475</v>
       </c>
       <c r="H38">
-        <v>0.85</v>
+        <v>109.6225</v>
       </c>
       <c r="I38">
         <v>109.52500000000001</v>
@@ -2267,7 +2272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2275,25 +2280,25 @@
         <v>54</v>
       </c>
       <c r="C39">
-        <v>7.4413999999999998</v>
+        <f>SUM(H39+D39)</f>
+        <v>7.4424000000000001</v>
       </c>
       <c r="D39">
         <v>1E-3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
-        <v>7.4424000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F39">
-        <f>SUM(C39-H39/2)</f>
+        <f>SUM(H39-E39/2)</f>
         <v>7.1913999999999998</v>
       </c>
       <c r="G39">
-        <f>SUM(C39+H39/2)</f>
+        <f>SUM(H39+E39/2)</f>
         <v>7.6913999999999998</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>7.4413999999999998</v>
       </c>
       <c r="I39">
         <v>7.4367000000000001</v>
@@ -2311,7 +2316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2319,25 +2324,25 @@
         <v>55</v>
       </c>
       <c r="C40">
-        <v>9.1765000000000008</v>
+        <f>SUM(H40+D40)</f>
+        <v>9.1840000000000011</v>
       </c>
       <c r="D40">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
-        <v>9.1840000000000011</v>
+        <v>0.75</v>
       </c>
       <c r="F40">
-        <f>SUM(C40-H40/2)</f>
+        <f>SUM(H40-E40/2)</f>
         <v>8.8015000000000008</v>
       </c>
       <c r="G40">
-        <f>SUM(C40+H40/2)</f>
+        <f>SUM(H40+E40/2)</f>
         <v>9.5515000000000008</v>
       </c>
       <c r="H40">
-        <v>0.75</v>
+        <v>9.1765000000000008</v>
       </c>
       <c r="I40">
         <v>9.1615000000000002</v>
@@ -2355,7 +2360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2363,25 +2368,25 @@
         <v>53</v>
       </c>
       <c r="C41">
-        <v>9.1370000000000005</v>
+        <f>SUM(H41+D41)</f>
+        <v>9.0934000000000008</v>
       </c>
       <c r="D41">
         <v>-4.36E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
-        <v>9.0934000000000008</v>
+        <v>0.75</v>
       </c>
       <c r="F41">
-        <f>SUM(C41-H41/2)</f>
+        <f>SUM(H41-E41/2)</f>
         <v>8.7620000000000005</v>
       </c>
       <c r="G41">
-        <f>SUM(C41+H41/2)</f>
+        <f>SUM(H41+E41/2)</f>
         <v>9.5120000000000005</v>
       </c>
       <c r="H41">
-        <v>0.75</v>
+        <v>9.1370000000000005</v>
       </c>
       <c r="I41">
         <v>9.1159999999999997</v>
@@ -2399,7 +2404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2407,25 +2412,25 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>6.5873999999999997</v>
+        <f>SUM(H42+D42)</f>
+        <v>6.5897999999999994</v>
       </c>
       <c r="D42">
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
-        <v>6.5897999999999994</v>
+        <v>0.5</v>
       </c>
       <c r="F42">
-        <f>SUM(C42-H42/2)</f>
+        <f>SUM(H42-E42/2)</f>
         <v>6.3373999999999997</v>
       </c>
       <c r="G42">
-        <f>SUM(C42+H42/2)</f>
+        <f>SUM(H42+E42/2)</f>
         <v>6.8373999999999997</v>
       </c>
       <c r="H42">
-        <v>0.5</v>
+        <v>6.5873999999999997</v>
       </c>
       <c r="I42">
         <v>6.5791000000000004</v>
@@ -2443,7 +2448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2451,25 +2456,25 @@
         <v>52</v>
       </c>
       <c r="C43">
-        <v>8.1242000000000001</v>
+        <f>SUM(H43+D43)</f>
+        <v>8.1334999999999997</v>
       </c>
       <c r="D43">
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
-        <v>8.1334999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="F43">
-        <f>SUM(C43-H43/2)</f>
+        <f>SUM(H43-E43/2)</f>
         <v>7.7492000000000001</v>
       </c>
       <c r="G43">
-        <f>SUM(C43+H43/2)</f>
+        <f>SUM(H43+E43/2)</f>
         <v>8.4992000000000001</v>
       </c>
       <c r="H43">
-        <v>0.75</v>
+        <v>8.1242000000000001</v>
       </c>
       <c r="I43">
         <v>8.1047999999999991</v>
@@ -2487,7 +2492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -2495,25 +2500,25 @@
         <v>51</v>
       </c>
       <c r="C44">
-        <v>8.0891999999999999</v>
+        <f>SUM(H44+D44)</f>
+        <v>8.0532000000000004</v>
       </c>
       <c r="D44">
         <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
-        <v>8.0532000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="F44">
-        <f>SUM(C44-H44/2)</f>
+        <f>SUM(H44-E44/2)</f>
         <v>7.8391999999999999</v>
       </c>
       <c r="G44">
-        <f>SUM(C44+H44/2)</f>
+        <f>SUM(H44+E44/2)</f>
         <v>8.3391999999999999</v>
       </c>
       <c r="H44">
-        <v>0.5</v>
+        <v>8.0891999999999999</v>
       </c>
       <c r="I44">
         <v>8.0638000000000005</v>
@@ -2531,7 +2536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -2539,25 +2544,25 @@
         <v>24</v>
       </c>
       <c r="C45">
-        <v>85.785899999999998</v>
+        <f>SUM(H45+D45)</f>
+        <v>86.0381</v>
       </c>
       <c r="D45">
         <v>0.25219999999999998</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
-        <v>86.0381</v>
+        <v>0.85</v>
       </c>
       <c r="F45">
-        <f>SUM(C45-H45/2)</f>
+        <f>SUM(H45-E45/2)</f>
         <v>85.360900000000001</v>
       </c>
       <c r="G45">
-        <f>SUM(C45+H45/2)</f>
+        <f>SUM(H45+E45/2)</f>
         <v>86.210899999999995</v>
       </c>
       <c r="H45">
-        <v>0.85</v>
+        <v>85.785899999999998</v>
       </c>
       <c r="I45">
         <v>85.364999999999995</v>
@@ -2575,7 +2580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -2583,25 +2588,25 @@
         <v>21</v>
       </c>
       <c r="C46">
-        <v>86.784599999999998</v>
+        <f>SUM(H46+D46)</f>
+        <v>86.841700000000003</v>
       </c>
       <c r="D46">
         <v>5.7099999999999998E-2</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
-        <v>86.841700000000003</v>
+        <v>0.85</v>
       </c>
       <c r="F46">
-        <f>SUM(C46-H46/2)</f>
+        <f>SUM(H46-E46/2)</f>
         <v>86.3596</v>
       </c>
       <c r="G46">
-        <f>SUM(C46+H46/2)</f>
+        <f>SUM(H46+E46/2)</f>
         <v>87.209599999999995</v>
       </c>
       <c r="H46">
-        <v>0.85</v>
+        <v>86.784599999999998</v>
       </c>
       <c r="I46">
         <v>86.552599999999998</v>
@@ -2619,7 +2624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -2627,25 +2632,25 @@
         <v>20</v>
       </c>
       <c r="C47">
-        <v>113.005</v>
+        <f>SUM(H47+D47)</f>
+        <v>113.0804</v>
       </c>
       <c r="D47">
         <v>7.5399999999999995E-2</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
-        <v>113.0804</v>
+        <v>0.85</v>
       </c>
       <c r="F47">
-        <f>SUM(C47-H47/2)</f>
+        <f>SUM(H47-E47/2)</f>
         <v>112.58</v>
       </c>
       <c r="G47">
-        <f>SUM(C47+H47/2)</f>
+        <f>SUM(H47+E47/2)</f>
         <v>113.42999999999999</v>
       </c>
       <c r="H47">
-        <v>0.85</v>
+        <v>113.005</v>
       </c>
       <c r="I47">
         <v>112.8047</v>
@@ -2663,7 +2668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2671,25 +2676,25 @@
         <v>23</v>
       </c>
       <c r="C48">
-        <v>157.3997</v>
+        <f>SUM(H48+D48)</f>
+        <v>157.50190000000001</v>
       </c>
       <c r="D48">
         <v>0.1022</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
-        <v>157.50190000000001</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <f>SUM(C48-H48/2)</f>
+        <f>SUM(H48-E48/2)</f>
         <v>156.8997</v>
       </c>
       <c r="G48">
-        <f>SUM(C48+H48/2)</f>
+        <f>SUM(H48+E48/2)</f>
         <v>157.8997</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>157.3997</v>
       </c>
       <c r="I48">
         <v>156.965</v>
@@ -2707,7 +2712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -2715,25 +2720,25 @@
         <v>22</v>
       </c>
       <c r="C49">
-        <v>76.507999999999996</v>
+        <f>SUM(H49+D49)</f>
+        <v>76.424899999999994</v>
       </c>
       <c r="D49">
         <v>-8.3099999999999993E-2</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
-        <v>76.424899999999994</v>
+        <v>0.85</v>
       </c>
       <c r="F49">
-        <f>SUM(C49-H49/2)</f>
+        <f>SUM(H49-E49/2)</f>
         <v>76.082999999999998</v>
       </c>
       <c r="G49">
-        <f>SUM(C49+H49/2)</f>
+        <f>SUM(H49+E49/2)</f>
         <v>76.932999999999993</v>
       </c>
       <c r="H49">
-        <v>0.85</v>
+        <v>76.507999999999996</v>
       </c>
       <c r="I49">
         <v>76.232799999999997</v>
@@ -2751,7 +2756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -2759,25 +2764,25 @@
         <v>25</v>
       </c>
       <c r="C50">
-        <v>81.592500000000001</v>
+        <f>SUM(H50+D50)</f>
+        <v>81.547700000000006</v>
       </c>
       <c r="D50">
         <v>-4.48E-2</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
-        <v>81.547700000000006</v>
+        <v>0.85</v>
       </c>
       <c r="F50">
-        <f>SUM(C50-H50/2)</f>
+        <f>SUM(H50-E50/2)</f>
         <v>81.167500000000004</v>
       </c>
       <c r="G50">
-        <f>SUM(C50+H50/2)</f>
+        <f>SUM(H50+E50/2)</f>
         <v>82.017499999999998</v>
       </c>
       <c r="H50">
-        <v>0.85</v>
+        <v>81.592500000000001</v>
       </c>
       <c r="I50">
         <v>81.376000000000005</v>
@@ -2795,7 +2800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -2803,25 +2808,25 @@
         <v>26</v>
       </c>
       <c r="C51">
-        <v>7.6765999999999996</v>
+        <f>SUM(H51+D51)</f>
+        <v>7.6319999999999997</v>
       </c>
       <c r="D51">
         <v>-4.4600000000000001E-2</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
-        <v>7.6319999999999997</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <f>SUM(C51-H51/2)</f>
+        <f>SUM(H51-E51/2)</f>
         <v>7.1765999999999996</v>
       </c>
       <c r="G51">
-        <f>SUM(C51+H51/2)</f>
+        <f>SUM(H51+E51/2)</f>
         <v>8.1766000000000005</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>7.6765999999999996</v>
       </c>
       <c r="I51">
         <v>7.6695000000000002</v>
@@ -2846,10 +2851,5 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>